--- a/build tabellen + grafieken.xlsx
+++ b/build tabellen + grafieken.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OMVISWEG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\OMVISWEG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>Gesorteerd</t>
   </si>
@@ -32,19 +32,19 @@
     <t>Ongesorteerd</t>
   </si>
   <si>
+    <t>LIST Build</t>
+  </si>
+  <si>
+    <t>AVL Build</t>
+  </si>
+  <si>
+    <t>Heap Build</t>
+  </si>
+  <si>
     <t>Omgekeerd gesorteerd</t>
   </si>
   <si>
-    <t>AVL</t>
-  </si>
-  <si>
-    <t>Heap</t>
-  </si>
-  <si>
-    <t>Hash</t>
-  </si>
-  <si>
-    <t>List</t>
+    <t>Hash Build</t>
   </si>
 </sst>
 </file>
@@ -84,7 +84,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -102,7 +102,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -134,7 +134,446 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-NL"/>
-              <a:t>Build 1 million</a:t>
+              <a:t>List</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> Build</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ongesorteerd</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>663.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Gesorteerd</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>292.39999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Omgekeerd gesorteerd</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>299.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="378510976"/>
+        <c:axId val="378521168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="378510976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378521168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="378521168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378510976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>AVL Build</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -181,7 +620,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$B$1</c:f>
+              <c:f>Blad1!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -201,42 +640,37 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Blad1!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
+            <c:numRef>
+              <c:f>Blad1!$A$7:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Heap</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AVL</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>List</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Hash</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$5</c:f>
+              <c:f>Blad1!$B$7:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>177</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1032.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>663.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>610.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -247,7 +681,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$C$1</c:f>
+              <c:f>Blad1!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -267,42 +701,37 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Blad1!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
+            <c:numRef>
+              <c:f>Blad1!$A$7:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Heap</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AVL</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>List</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Hash</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$C$2:$C$5</c:f>
+              <c:f>Blad1!$C$7:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>554.79999999999995</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>292.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>442.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -313,7 +742,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$D$1</c:f>
+              <c:f>Blad1!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -333,42 +762,37 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Blad1!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
+            <c:numRef>
+              <c:f>Blad1!$A$7:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Heap</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AVL</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>List</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Hash</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$D$2:$D$5</c:f>
+              <c:f>Blad1!$D$7:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>540.6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>419.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>299.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>439.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -384,11 +808,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="257469712"/>
-        <c:axId val="257470832"/>
+        <c:axId val="310614744"/>
+        <c:axId val="310616704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257469712"/>
+        <c:axId val="310614744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -431,7 +855,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257470832"/>
+        <c:crossAx val="310616704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -439,7 +863,472 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257470832"/>
+        <c:axId val="310616704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="310614744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Heap Build</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ongesorteerd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$A$12:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$B$12:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gesorteerd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$A$12:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$C$12:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>554.79999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Omgekeerd gesorteerd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$A$12:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$D$12:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>540.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="378511368"/>
+        <c:axId val="378514112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="378511368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378514112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="378514112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,7 +1379,464 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257469712"/>
+        <c:crossAx val="378511368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Hash Build</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ongesorteerd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$A$17:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$B$17:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>610.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gesorteerd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$A$17:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$C$17:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>442.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Omgekeerd gesorteerd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$A$17:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$D$17:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>439.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="311422568"/>
+        <c:axId val="311419824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="311422568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311419824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="311419824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311422568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -611,6 +1957,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1114,24 +2580,1533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1146,13 +4121,103 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafiek 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafiek 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1190,7 +4255,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1262,7 +4327,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1412,10 +4477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,6 +4492,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -1434,46 +4502,43 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="A2">
+        <v>10000</v>
       </c>
       <c r="B2">
-        <f>(178+176+175+175+181)/5</f>
-        <v>177</v>
+        <f>(4+4+4+4+5)/5</f>
+        <v>4.2</v>
       </c>
       <c r="C2">
-        <f>(557+551+558+559+549)/5</f>
-        <v>554.79999999999995</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <f>(540+534+547+549+533)/5</f>
-        <v>540.6</v>
+        <f>(2+2+2+2+3)/5</f>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="A3">
+        <v>100000</v>
       </c>
       <c r="B3">
-        <f>(978+1039+1022+1065+1060)/5</f>
-        <v>1032.8</v>
+        <f>(52+52+52+53+53)/5</f>
+        <v>52.4</v>
       </c>
       <c r="C3">
-        <f>(429+461+435+435+440)/5</f>
-        <v>440</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <f>(419+424+408+429+419)/5</f>
-        <v>419.8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+      <c r="A4">
+        <v>1000000</v>
       </c>
       <c r="B4">
         <f>(626+731+714+628+619)/5</f>
@@ -1488,19 +4553,187 @@
         <v>299.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>100000</v>
+      </c>
+      <c r="B8">
+        <f>(36+36+36+37+37)/5</f>
+        <v>36.4</v>
+      </c>
+      <c r="C8">
+        <f>(24+24+24+25+25)/5</f>
+        <v>24.4</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1000000</v>
+      </c>
+      <c r="B9">
+        <f>(978+1039+1022+1065+1060)/5</f>
+        <v>1032.8</v>
+      </c>
+      <c r="C9">
+        <f>(429+461+435+435+440)/5</f>
+        <v>440</v>
+      </c>
+      <c r="D9">
+        <f>(419+424+408+429+419)/5</f>
+        <v>419.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10000</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>100000</v>
+      </c>
+      <c r="B13">
+        <f>(18*4+19)/5</f>
+        <v>18.2</v>
+      </c>
+      <c r="C13">
+        <f>(47+48*4)/5</f>
+        <v>47.8</v>
+      </c>
+      <c r="D13">
+        <f>(46+47*4)/5</f>
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1000000</v>
+      </c>
+      <c r="B14">
+        <f>(178+176+175+175+181)/5</f>
+        <v>177</v>
+      </c>
+      <c r="C14">
+        <f>(557+551+558+559+549)/5</f>
+        <v>554.79999999999995</v>
+      </c>
+      <c r="D14">
+        <f>(540+534+547+549+533)/5</f>
+        <v>540.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10000</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>100000</v>
+      </c>
+      <c r="B18">
+        <f>(27+29+30+30+30)/5</f>
+        <v>29.2</v>
+      </c>
+      <c r="C18">
+        <f>(24+25+22+22+26)/5</f>
+        <v>23.8</v>
+      </c>
+      <c r="D18">
+        <f>(30+28+27+28+28)/5</f>
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1000000</v>
+      </c>
+      <c r="B19">
         <f>(607+597+623+618+607)/5</f>
         <v>610.4</v>
       </c>
-      <c r="C5">
+      <c r="C19">
         <f>(422+480+413+425+472)/5</f>
         <v>442.4</v>
       </c>
-      <c r="D5">
+      <c r="D19">
         <f>(475+410+421+482+408)/5</f>
         <v>439.2</v>
       </c>

--- a/build tabellen + grafieken.xlsx
+++ b/build tabellen + grafieken.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\OMVISWEG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OMVISWEG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>Gesorteerd</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>Hash Build</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Avl</t>
+  </si>
+  <si>
+    <t>Heap</t>
   </si>
 </sst>
 </file>
@@ -84,7 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -102,7 +114,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -349,11 +361,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="378510976"/>
-        <c:axId val="378521168"/>
+        <c:axId val="178149008"/>
+        <c:axId val="178151248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="378510976"/>
+        <c:axId val="178149008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,7 +408,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378521168"/>
+        <c:crossAx val="178151248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -404,7 +416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378521168"/>
+        <c:axId val="178151248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="700"/>
@@ -457,7 +469,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378510976"/>
+        <c:crossAx val="178149008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -541,7 +553,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -808,11 +820,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="310614744"/>
-        <c:axId val="310616704"/>
+        <c:axId val="178164128"/>
+        <c:axId val="178153488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="310614744"/>
+        <c:axId val="178164128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +867,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310616704"/>
+        <c:crossAx val="178153488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -863,7 +875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310616704"/>
+        <c:axId val="178153488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1100"/>
@@ -916,7 +928,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310614744"/>
+        <c:crossAx val="178164128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1000,7 +1012,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1273,11 +1285,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="378511368"/>
-        <c:axId val="378514112"/>
+        <c:axId val="258146640"/>
+        <c:axId val="258147200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="378511368"/>
+        <c:axId val="258146640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,7 +1332,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378514112"/>
+        <c:crossAx val="258147200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1328,7 +1340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378514112"/>
+        <c:axId val="258147200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1391,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378511368"/>
+        <c:crossAx val="258146640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1463,7 +1475,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1730,11 +1742,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="311422568"/>
-        <c:axId val="311419824"/>
+        <c:axId val="258151120"/>
+        <c:axId val="258151680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="311422568"/>
+        <c:axId val="258151120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +1789,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311419824"/>
+        <c:crossAx val="258151680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1785,7 +1797,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311419824"/>
+        <c:axId val="258151680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1848,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311422568"/>
+        <c:crossAx val="258151120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4094,15 +4106,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>589359</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4124,15 +4136,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4153,16 +4165,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4183,16 +4195,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>583407</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4215,9 +4227,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4255,7 +4267,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4327,7 +4339,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4477,10 +4489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4491,7 +4503,7 @@
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4505,7 +4517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -4521,7 +4533,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100000</v>
       </c>
@@ -4536,7 +4548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000000</v>
       </c>
@@ -4553,7 +4565,7 @@
         <v>299.2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4567,7 +4579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -4581,7 +4593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>100000</v>
       </c>
@@ -4597,7 +4609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1000000</v>
       </c>
@@ -4614,7 +4626,7 @@
         <v>419.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -4628,7 +4640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -4642,7 +4654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>100000</v>
       </c>
@@ -4659,7 +4671,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1000000</v>
       </c>
@@ -4675,8 +4687,11 @@
         <f>(540+534+547+549+533)/5</f>
         <v>540.6</v>
       </c>
+      <c r="R14" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -4736,6 +4751,85 @@
       <c r="D19">
         <f>(475+410+421+482+408)/5</f>
         <v>439.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f>(607+597+623+618+607)/5</f>
+        <v>610.4</v>
+      </c>
+      <c r="C24">
+        <f>(422+480+413+425+472)/5</f>
+        <v>442.4</v>
+      </c>
+      <c r="D24">
+        <f>(475+410+421+482+408)/5</f>
+        <v>439.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <f>(178+176+175+175+181)/5</f>
+        <v>177</v>
+      </c>
+      <c r="C25">
+        <f>(557+551+558+559+549)/5</f>
+        <v>554.79999999999995</v>
+      </c>
+      <c r="D25">
+        <f>(540+534+547+549+533)/5</f>
+        <v>540.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <f>(978+1039+1022+1065+1060)/5</f>
+        <v>1032.8</v>
+      </c>
+      <c r="C26">
+        <f>(429+461+435+435+440)/5</f>
+        <v>440</v>
+      </c>
+      <c r="D26">
+        <f>(419+424+408+429+419)/5</f>
+        <v>419.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <f>(626+731+714+628+619)/5</f>
+        <v>663.6</v>
+      </c>
+      <c r="C27">
+        <f>(253+355+271+265+318)/5</f>
+        <v>292.39999999999998</v>
+      </c>
+      <c r="D27">
+        <f>(267+375+271+265+318)/5</f>
+        <v>299.2</v>
       </c>
     </row>
   </sheetData>
